--- a/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from DK_IHE_ClassCode" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from DK IHE ClassCode" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -102,7 +102,7 @@
     <t>001</t>
   </si>
   <si>
-    <t>Clinical report</t>
+    <t>Klinisk rapport</t>
   </si>
   <si>
     <t/>

--- a/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
+++ b/fhir/ValueSet-dk-ihe-classcode-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
